--- a/PASKurs/лабораторные работы/l1/PAS1.xlsx
+++ b/PASKurs/лабораторные работы/l1/PAS1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569821C-ED97-4745-9F27-C73BE1D06A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EF5767D0-DEC5-4923-926B-5F2E82C63E0D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Каталоги" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="6-РКИСиРК" sheetId="4" r:id="rId4"/>
     <sheet name="8-ОКАСОИиК" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1227,11 +1226,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1447,6 +1472,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1534,6 +1593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1570,41 +1632,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1920,26 +1951,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9ADD31-278A-47ED-BE96-16EDEF738BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>33</v>
@@ -1991,7 +2022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -2004,7 +2035,7 @@
       <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="79" t="s">
         <v>119</v>
       </c>
       <c r="G2" s="2">
@@ -2065,7 +2096,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2109,7 +2140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T4" s="5">
         <v>3</v>
       </c>
@@ -2141,26 +2172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF9F97F-A8F2-4EDD-A760-ECE20C94B02F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2183,18 +2214,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>SUM(H7:H11) + SUM(K7:K11) + 1</f>
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>23</v>
       </c>
@@ -2202,15 +2233,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="24">
         <v>11</v>
       </c>
-      <c r="I7" s="125" t="str">
+      <c r="I7" s="83" t="str">
         <f xml:space="preserve"> "1 -  " &amp; H7</f>
         <v>1 -  11</v>
       </c>
@@ -2225,7 +2256,7 @@
         <v>43 - 45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2268,7 @@
         <v>12 - 18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2249,7 +2280,7 @@
         <v>19 - 26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -2261,7 +2292,7 @@
         <v>27 - 34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -2273,31 +2304,31 @@
         <v>35 - 42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448B0C99-C6F3-4763-8929-B6AED8C6E25E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
@@ -2318,8 +2349,8 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2343,8 +2374,8 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="94"/>
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
@@ -2366,8 +2397,8 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="94"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2389,8 +2420,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2443,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="95"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -2435,14 +2466,14 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="16">
         <f>SUM(F2:F6)</f>
         <v>20142</v>
@@ -2451,8 +2482,8 @@
       <c r="H7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2476,8 +2507,8 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="94"/>
       <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
@@ -2499,8 +2530,8 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="94"/>
       <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
@@ -2523,8 +2554,8 @@
       <c r="J10" s="10"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="94"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2578,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="95"/>
       <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
@@ -2570,21 +2601,21 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="17">
         <f>SUM(F8:F12)</f>
         <v>8177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2608,8 +2639,8 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="94"/>
       <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
@@ -2631,8 +2662,8 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="94"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2654,8 +2685,8 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="94"/>
       <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
@@ -2677,8 +2708,8 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="95"/>
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2701,14 +2732,14 @@
       <c r="J18" s="10"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79" t="s">
+    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="17">
         <f>SUM(F14:F18)</f>
         <v>16500</v>
@@ -2718,8 +2749,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="93" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -2740,8 +2771,8 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="94"/>
       <c r="B21" s="30" t="s">
         <v>1</v>
       </c>
@@ -2760,8 +2791,8 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="94"/>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2781,8 +2812,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="94"/>
       <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
@@ -2801,8 +2832,8 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="95"/>
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2822,22 +2853,22 @@
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79" t="s">
+    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="18">
         <f>SUM(F20:F24)</f>
         <v>10451</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81" t="s">
+    <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2859,8 +2890,8 @@
       <c r="G26" s="8"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="94"/>
       <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
@@ -2879,8 +2910,8 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2899,8 +2930,8 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="94"/>
       <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
@@ -2919,8 +2950,8 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="95"/>
       <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2939,21 +2970,21 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
+    <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="15">
         <f>SUM(F26:F30)</f>
         <v>27120</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A31:E31"/>
@@ -2972,22 +3003,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67F02C9-54E3-46AA-B58B-C5EB683E9D21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>52</v>
       </c>
@@ -3027,7 +3058,7 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>55</v>
       </c>
@@ -3041,7 +3072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1">
@@ -3057,7 +3088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>54</v>
       </c>
@@ -3081,7 +3112,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="38"/>
       <c r="D9" s="35" t="s">
         <v>64</v>
@@ -3103,7 +3134,7 @@
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10">
         <f>PRODUCT(H10:J10)</f>
         <v>13680</v>
@@ -3125,11 +3156,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>63</v>
       </c>
@@ -3153,7 +3184,7 @@
         <v>25300.000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="38"/>
       <c r="D14" s="35" t="s">
         <v>64</v>
@@ -3174,7 +3205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15">
         <f>PRODUCT(H15:J15)</f>
         <v>10120.000000000002</v>
@@ -3202,56 +3233,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BA7910-482A-40EF-9934-50B832E68E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="108" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="105" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="115" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="115"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
@@ -3270,51 +3301,51 @@
       <c r="J2" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="103"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="103"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="111" t="s">
+      <c r="K2" s="117"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="115"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="103"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="126" t="str">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="115"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="116"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="84" t="str">
         <f>'4 ОМК'!I7</f>
         <v>1 -  11</v>
       </c>
-      <c r="F4" s="127" t="str">
+      <c r="F4" s="85" t="str">
         <f>'4 ОМК'!I8</f>
         <v>12 - 18</v>
       </c>
-      <c r="G4" s="128" t="str">
+      <c r="G4" s="86" t="str">
         <f>'4 ОМК'!I9</f>
         <v>19 - 26</v>
       </c>
-      <c r="H4" s="128" t="str">
+      <c r="H4" s="86" t="str">
         <f>'4 ОМК'!I10</f>
         <v>27 - 34</v>
       </c>
-      <c r="I4" s="128" t="str">
+      <c r="I4" s="86" t="str">
         <f>'4 ОМК'!I11</f>
         <v>35 - 42</v>
       </c>
-      <c r="J4" s="129" t="str">
+      <c r="J4" s="87" t="str">
         <f>'4 ОМК'!L7</f>
         <v>43 - 45</v>
       </c>
@@ -3327,15 +3358,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="66" t="s">
         <v>69</v>
       </c>
@@ -3361,15 +3392,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="105"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="65" t="s">
         <v>69</v>
       </c>
@@ -3395,36 +3426,36 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="130" t="str">
+      <c r="C7" s="101"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="88" t="str">
         <f>E4</f>
         <v>1 -  11</v>
       </c>
-      <c r="F7" s="131" t="str">
+      <c r="F7" s="89" t="str">
         <f t="shared" ref="F7:K7" si="0">F4</f>
         <v>12 - 18</v>
       </c>
-      <c r="G7" s="131" t="str">
+      <c r="G7" s="89" t="str">
         <f t="shared" si="0"/>
         <v>19 - 26</v>
       </c>
-      <c r="H7" s="131" t="str">
+      <c r="H7" s="89" t="str">
         <f t="shared" si="0"/>
         <v>27 - 34</v>
       </c>
-      <c r="I7" s="131" t="str">
+      <c r="I7" s="89" t="str">
         <f t="shared" si="0"/>
         <v>35 - 42</v>
       </c>
-      <c r="J7" s="132" t="str">
+      <c r="J7" s="90" t="str">
         <f t="shared" si="0"/>
         <v>43 - 45</v>
       </c>
@@ -3436,15 +3467,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -3470,11 +3501,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="106" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="120" t="s">
@@ -3483,36 +3514,36 @@
       <c r="D9" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="80" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="81" t="s">
         <v>91</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="81" t="s">
         <v>91</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="124" t="s">
+      <c r="K9" s="82" t="s">
         <v>91</v>
       </c>
       <c r="L9" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="120"/>
       <c r="D10" s="55" t="s">
         <v>75</v>
@@ -3550,11 +3581,11 @@
         <v>11960</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="120" t="s">
         <v>77</v>
       </c>
@@ -3586,11 +3617,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="120"/>
       <c r="D12" s="55" t="s">
         <v>79</v>
@@ -3628,12 +3659,12 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="101" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -3664,12 +3695,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="58" t="s">
         <v>86</v>
       </c>
@@ -3704,14 +3735,14 @@
         <v>82390</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="101" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -3743,12 +3774,12 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="55" t="s">
         <v>90</v>
       </c>
@@ -3779,11 +3810,11 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="102"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="47" t="s">
         <v>82</v>
       </c>
@@ -3817,11 +3848,11 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="50" t="s">
         <v>83</v>
       </c>
@@ -3857,14 +3888,14 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="46">
         <v>15</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="107" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="55" t="s">
@@ -3895,12 +3926,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="46">
         <v>16</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="55" t="s">
         <v>96</v>
       </c>
@@ -3938,12 +3969,12 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="46">
         <v>17</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="101" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -3974,12 +4005,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="46">
         <v>18</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="102"/>
       <c r="D22" s="58" t="s">
         <v>98</v>
       </c>
@@ -4015,130 +4046,130 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="46">
         <v>19</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="65">
-        <f>E10+E12+E14+E20+E22</f>
-        <v>43050</v>
+        <f>ROUND((E10+E12+E14+E20+E22)/'4 ОМК'!H7, 2)</f>
+        <v>3913.64</v>
       </c>
       <c r="F23" s="70">
-        <f t="shared" ref="F23:I23" si="1">F10+F12+F14+F20+F22</f>
-        <v>22793</v>
+        <f>ROUND((F10+F12+F14+F20+F22)/'4 ОМК'!H8,2)</f>
+        <v>3256.14</v>
       </c>
       <c r="G23" s="70">
-        <f t="shared" si="1"/>
-        <v>33004</v>
+        <f>ROUND((G10+G12+G14+G20+G22)/'4 ОМК'!H9,2)</f>
+        <v>4125.5</v>
       </c>
       <c r="H23" s="70">
-        <f t="shared" si="1"/>
-        <v>27035</v>
+        <f>ROUND((H10+H12+H14+H20+H22)/'4 ОМК'!H10,2)</f>
+        <v>3379.38</v>
       </c>
       <c r="I23" s="70">
-        <f t="shared" si="1"/>
-        <v>43624</v>
-      </c>
-      <c r="J23" s="55">
-        <f>J10+J12+J20+J22</f>
-        <v>6324</v>
+        <f>ROUND((I10+I12+I14+I20+I22)/'4 ОМК'!H11,2)</f>
+        <v>5453</v>
+      </c>
+      <c r="J23" s="133">
+        <f>ROUND((J10+J12+J20+J22)/'4 ОМК'!K7,2)</f>
+        <v>2108</v>
       </c>
       <c r="K23" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="87">
+      <c r="L23" s="99">
         <f>SUM(E24:J24)+K25</f>
         <v>271109</v>
       </c>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46">
         <v>20</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="110"/>
       <c r="E24" s="67">
         <f>E10+E12+E14+E20+E22</f>
         <v>43050</v>
       </c>
       <c r="F24" s="71">
-        <f t="shared" ref="F24:I24" si="2">F10+F12+F14+F20+F22</f>
+        <f t="shared" ref="F24:I24" si="1">F10+F12+F14+F20+F22</f>
         <v>22793</v>
       </c>
       <c r="G24" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33004</v>
       </c>
       <c r="H24" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27035</v>
       </c>
       <c r="I24" s="71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43624</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="134">
         <f>J10+J12+J20+J22</f>
         <v>6324</v>
       </c>
       <c r="K24" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="88"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="100"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="46">
         <v>21</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="101"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="64">
         <f>K20+K12+K10+SUM(K16:K18)</f>
         <v>95279</v>
       </c>
-      <c r="L25" s="88"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="100"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>22</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
       <c r="L26" s="60">
         <f>L10+L12+L14+SUM(L16:L18)+L20+L22</f>
         <v>271109</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K28" t="s">
         <v>108</v>
       </c>
@@ -4148,47 +4179,48 @@
       </c>
       <c r="M28" s="49"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="86" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="86"/>
+      <c r="C30" s="98"/>
       <c r="D30" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
+      <c r="M34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/PASKurs/лабораторные работы/l1/PAS1.xlsx
+++ b/PASKurs/лабораторные работы/l1/PAS1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18C422-E1D0-4708-8DFB-835EBB2B5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Каталоги" sheetId="3" r:id="rId1"/>
-    <sheet name="4 ОМК" sheetId="2" r:id="rId2"/>
+    <sheet name="4-ОМК" sheetId="2" r:id="rId2"/>
     <sheet name="5-РКПСиОК" sheetId="1" r:id="rId3"/>
     <sheet name="6-РКИСиРК" sheetId="4" r:id="rId4"/>
     <sheet name="8-ОКАСОИиК" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
   <si>
     <t>З1</t>
   </si>
@@ -138,27 +139,6 @@
     <t>Epson CX 4400</t>
   </si>
   <si>
-    <t>номер устройства</t>
-  </si>
-  <si>
-    <t>гарантия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">формат </t>
-  </si>
-  <si>
-    <t xml:space="preserve">тип </t>
-  </si>
-  <si>
-    <t>марка</t>
-  </si>
-  <si>
-    <t>цена</t>
-  </si>
-  <si>
-    <t>ЦП</t>
-  </si>
-  <si>
     <t>Катран</t>
   </si>
   <si>
@@ -177,24 +157,6 @@
     <t>27”</t>
   </si>
   <si>
-    <t>номер ПЭВМ</t>
-  </si>
-  <si>
-    <t>ОП</t>
-  </si>
-  <si>
-    <t>ВП</t>
-  </si>
-  <si>
-    <t>тип монитора</t>
-  </si>
-  <si>
-    <t>размер монитора</t>
-  </si>
-  <si>
-    <t>дата производства</t>
-  </si>
-  <si>
     <t xml:space="preserve">стоимость создания ПС = </t>
   </si>
   <si>
@@ -433,12 +395,18 @@
   </si>
   <si>
     <t>MySQL, Visual Studio Code, Си, Microsoft Office</t>
+  </si>
+  <si>
+    <t>Принтеры</t>
+  </si>
+  <si>
+    <t>Программы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1256,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1506,6 +1474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1521,6 +1495,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,107 +1579,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1951,78 +1922,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="B1" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="T1" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -2030,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>12</v>
       </c>
       <c r="F2" s="79" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2">
         <v>190</v>
@@ -2045,22 +1998,22 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P2" s="2">
         <v>24</v>
@@ -2075,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="V2" s="2">
         <v>2011</v>
@@ -2084,19 +2037,19 @@
         <v>1</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Y2" s="2">
         <v>4096</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AA2" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2119,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="V3" s="62">
         <v>9.6999999999999993</v>
@@ -2128,24 +2081,24 @@
         <v>2</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Y3" s="3">
         <v>512</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T4" s="5">
         <v>3</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="V4" s="3">
         <v>2007</v>
@@ -2154,44 +2107,49 @@
         <v>2</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Y4" s="3">
         <v>1024</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AA4" s="3">
         <v>240</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="T1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2214,18 +2172,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>SUM(H7:H11) + SUM(K7:K11) + 1</f>
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>23</v>
       </c>
@@ -2233,8 +2191,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2214,7 @@
         <v>43 - 45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2268,7 +2226,7 @@
         <v>12 - 18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2238,7 @@
         <v>19 - 26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -2292,7 +2250,7 @@
         <v>27 - 34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -2304,31 +2262,31 @@
         <v>35 - 42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2307,8 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2374,8 +2332,8 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94"/>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="96"/>
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
@@ -2397,8 +2355,8 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="96"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2420,8 +2378,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="96"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2443,8 +2401,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="95"/>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -2466,14 +2424,14 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="16">
         <f>SUM(F2:F6)</f>
         <v>20142</v>
@@ -2482,8 +2440,8 @@
       <c r="H7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2507,8 +2465,8 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="96"/>
       <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
@@ -2530,8 +2488,8 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="94"/>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="96"/>
       <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
@@ -2554,8 +2512,8 @@
       <c r="J10" s="10"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="96"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2536,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="97"/>
       <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
@@ -2601,21 +2559,21 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="17">
         <f>SUM(F8:F12)</f>
         <v>8177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="95" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2639,8 +2597,8 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="94"/>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="96"/>
       <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
@@ -2662,8 +2620,8 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94"/>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="96"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2685,8 +2643,8 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="94"/>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="96"/>
       <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
@@ -2708,8 +2666,8 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="95"/>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="97"/>
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2732,14 +2690,14 @@
       <c r="J18" s="10"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="91" t="s">
+    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="17">
         <f>SUM(F14:F18)</f>
         <v>16500</v>
@@ -2749,8 +2707,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -2771,8 +2729,8 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="94"/>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="96"/>
       <c r="B21" s="30" t="s">
         <v>1</v>
       </c>
@@ -2791,8 +2749,8 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="96"/>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2812,8 +2770,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="96"/>
       <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +2790,8 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95"/>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="97"/>
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2853,22 +2811,22 @@
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="91" t="s">
+    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="18">
         <f>SUM(F20:F24)</f>
         <v>10451</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="95" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2890,8 +2848,8 @@
       <c r="G26" s="8"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="94"/>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="96"/>
       <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
@@ -2910,8 +2868,8 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2930,8 +2888,8 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="94"/>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="96"/>
       <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
@@ -2950,8 +2908,8 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
       <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2970,21 +2928,21 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="91" t="s">
+    <row r="31" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="15">
         <f>SUM(F26:F30)</f>
         <v>27120</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A31:E31"/>
@@ -3003,24 +2961,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="14">
         <v>2.94</v>
@@ -3058,21 +3016,21 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1">
@@ -3088,9 +3046,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14">
         <f>D10</f>
@@ -3112,29 +3070,29 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="38"/>
       <c r="D9" s="35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>PRODUCT(H10:J10)</f>
         <v>13680</v>
@@ -3156,13 +3114,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C12" s="14">
         <f>D15</f>
@@ -3184,28 +3142,28 @@
         <v>25300.000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
       <c r="D14" s="35" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>PRODUCT(H15:J15)</f>
         <v>10120.000000000002</v>
@@ -3233,56 +3191,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:L25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="121" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="115" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="107"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
@@ -3299,142 +3257,142 @@
         <v>9</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="115"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="115"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="116"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
+        <v>110</v>
+      </c>
+      <c r="K2" s="98"/>
+      <c r="L2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="84" t="str">
-        <f>'4 ОМК'!I7</f>
+        <f>'4-ОМК'!I7</f>
         <v>1 -  11</v>
       </c>
       <c r="F4" s="85" t="str">
-        <f>'4 ОМК'!I8</f>
+        <f>'4-ОМК'!I8</f>
         <v>12 - 18</v>
       </c>
       <c r="G4" s="86" t="str">
-        <f>'4 ОМК'!I9</f>
+        <f>'4-ОМК'!I9</f>
         <v>19 - 26</v>
       </c>
       <c r="H4" s="86" t="str">
-        <f>'4 ОМК'!I10</f>
+        <f>'4-ОМК'!I10</f>
         <v>27 - 34</v>
       </c>
       <c r="I4" s="86" t="str">
-        <f>'4 ОМК'!I11</f>
+        <f>'4-ОМК'!I11</f>
         <v>35 - 42</v>
       </c>
       <c r="J4" s="87" t="str">
-        <f>'4 ОМК'!L7</f>
+        <f>'4-ОМК'!L7</f>
         <v>43 - 45</v>
       </c>
       <c r="K4" s="54">
-        <f>'4 ОМК'!B4</f>
+        <f>'4-ОМК'!B4</f>
         <v>46</v>
       </c>
       <c r="L4" s="48">
-        <f>'4 ОМК'!F2</f>
+        <f>'4-ОМК'!F2</f>
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="66" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F5" s="74" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H5" s="74" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I5" s="74" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L5" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="117"/>
+      <c r="B6" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="65" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="117"/>
+      <c r="B7" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="88" t="str">
         <f>E4</f>
         <v>1 -  11</v>
@@ -3464,18 +3422,18 @@
         <v>46</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="118" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="119"/>
+      <c r="B8" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -3498,78 +3456,78 @@
         <v>1</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>76</v>
+      <c r="B9" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I9" s="81" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="120"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="55" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E10" s="68">
-        <f>'4 ОМК'!H7*Каталоги!AA2</f>
+        <f>'4-ОМК'!H7*Каталоги!AA2</f>
         <v>2860</v>
       </c>
       <c r="F10" s="72">
-        <f>'4 ОМК'!H8*Каталоги!AA2</f>
+        <f>'4-ОМК'!H8*Каталоги!AA2</f>
         <v>1820</v>
       </c>
       <c r="G10" s="72">
-        <f>'4 ОМК'!H9*Каталоги!AA2</f>
+        <f>'4-ОМК'!H9*Каталоги!AA2</f>
         <v>2080</v>
       </c>
       <c r="H10" s="72">
-        <f>'4 ОМК'!H10*Каталоги!AA2</f>
+        <f>'4-ОМК'!H10*Каталоги!AA2</f>
         <v>2080</v>
       </c>
       <c r="I10" s="72">
-        <f>'4 ОМК'!H11*Каталоги!AA2</f>
+        <f>'4-ОМК'!H11*Каталоги!AA2</f>
         <v>2080</v>
       </c>
       <c r="J10" s="63">
-        <f>'4 ОМК'!K7*Каталоги!AA2</f>
+        <f>'4-ОМК'!K7*Каталоги!AA2</f>
         <v>780</v>
       </c>
       <c r="K10" s="55">
@@ -3581,73 +3539,73 @@
         <v>11960</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="120" t="s">
-        <v>77</v>
+      <c r="B11" s="113"/>
+      <c r="C11" s="119" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E11" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>120</v>
-      </c>
       <c r="L11" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="55" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E12" s="65">
-        <f>'4 ОМК'!H7*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!H7*(SUM(Каталоги!AA3:AA4))</f>
         <v>3190</v>
       </c>
       <c r="F12" s="70">
-        <f>'4 ОМК'!H8*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!H8*(SUM(Каталоги!AA3:AA4))</f>
         <v>2030</v>
       </c>
       <c r="G12" s="70">
-        <f>'4 ОМК'!H9*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!H9*(SUM(Каталоги!AA3:AA4))</f>
         <v>2320</v>
       </c>
       <c r="H12" s="70">
-        <f>'4 ОМК'!H10*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!H10*(SUM(Каталоги!AA3:AA4))</f>
         <v>2320</v>
       </c>
       <c r="I12" s="70">
-        <f>'4 ОМК'!H11*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!H11*(SUM(Каталоги!AA3:AA4))</f>
         <v>2320</v>
       </c>
       <c r="J12" s="55">
-        <f>'4 ОМК'!K7*(SUM(Каталоги!AA3:AA4))</f>
+        <f>'4-ОМК'!K7*(SUM(Каталоги!AA3:AA4))</f>
         <v>870</v>
       </c>
       <c r="K12" s="55">
@@ -3659,50 +3617,50 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="101" t="s">
-        <v>80</v>
+      <c r="B13" s="113"/>
+      <c r="C13" s="116" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L13" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="58" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E14" s="67">
         <f>'5-РКПСиОК'!F7</f>
@@ -3725,81 +3683,81 @@
         <v>27120</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K14" s="58" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L14" s="52">
         <f>SUM(E14:K14)</f>
         <v>82390</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>101</v>
-      </c>
       <c r="L15" s="53" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="55" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J16" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K16" s="55">
         <f>'6-РКИСиРК'!L2</f>
@@ -3810,34 +3768,34 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="47" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F17" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I17" s="70" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K17" s="55">
         <f>'6-РКИСиРК'!G7</f>
@@ -3848,34 +3806,34 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="50" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K18" s="58">
         <f>'6-РКИСиРК'!G12</f>
@@ -3888,79 +3846,79 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>15</v>
       </c>
-      <c r="B19" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>93</v>
+      <c r="B19" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F19" s="73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J19" s="57" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K19" s="55" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L19" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>16</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="55" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E20" s="65">
-        <f>'4 ОМК'!H7*Каталоги!$R$2</f>
+        <f>'4-ОМК'!H7*Каталоги!$R$2</f>
         <v>15598</v>
       </c>
       <c r="F20" s="70">
-        <f>'4 ОМК'!H8*Каталоги!$R$2</f>
+        <f>'4-ОМК'!H8*Каталоги!$R$2</f>
         <v>9926</v>
       </c>
       <c r="G20" s="70">
-        <f>'4 ОМК'!H9*Каталоги!$R$2</f>
+        <f>'4-ОМК'!H9*Каталоги!$R$2</f>
         <v>11344</v>
       </c>
       <c r="H20" s="70">
-        <f>'4 ОМК'!H10*Каталоги!$R$2</f>
+        <f>'4-ОМК'!H10*Каталоги!$R$2</f>
         <v>11344</v>
       </c>
       <c r="I20" s="70">
-        <f>'4 ОМК'!H11*Каталоги!$R$2</f>
+        <f>'4-ОМК'!H11*Каталоги!$R$2</f>
         <v>11344</v>
       </c>
       <c r="J20" s="55">
-        <f>'4 ОМК'!K7*Каталоги!R2</f>
+        <f>'4-ОМК'!K7*Каталоги!R2</f>
         <v>4254</v>
       </c>
       <c r="K20" s="55">
-        <f>'4 ОМК'!B2*Каталоги!R2</f>
+        <f>'4-ОМК'!B2*Каталоги!R2</f>
         <v>1418</v>
       </c>
       <c r="L20" s="46">
@@ -3969,50 +3927,50 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>17</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="101" t="s">
-        <v>94</v>
+      <c r="B21" s="127"/>
+      <c r="C21" s="116" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I21" s="70" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="J21" s="55" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K21" s="55" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46">
         <v>18</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="102"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="58" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E22" s="67">
         <f>6*Каталоги!$G$3</f>
@@ -4039,64 +3997,64 @@
         <v>420</v>
       </c>
       <c r="K22" s="58" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L22" s="52">
         <f>SUM(E22:K22)</f>
         <v>4880</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>19</v>
       </c>
-      <c r="B23" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
+      <c r="B23" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
       <c r="E23" s="65">
-        <f>ROUND((E10+E12+E14+E20+E22)/'4 ОМК'!H7, 2)</f>
+        <f>ROUND((E10+E12+E14+E20+E22)/'4-ОМК'!H7, 2)</f>
         <v>3913.64</v>
       </c>
       <c r="F23" s="70">
-        <f>ROUND((F10+F12+F14+F20+F22)/'4 ОМК'!H8,2)</f>
+        <f>ROUND((F10+F12+F14+F20+F22)/'4-ОМК'!H8,2)</f>
         <v>3256.14</v>
       </c>
       <c r="G23" s="70">
-        <f>ROUND((G10+G12+G14+G20+G22)/'4 ОМК'!H9,2)</f>
+        <f>ROUND((G10+G12+G14+G20+G22)/'4-ОМК'!H9,2)</f>
         <v>4125.5</v>
       </c>
       <c r="H23" s="70">
-        <f>ROUND((H10+H12+H14+H20+H22)/'4 ОМК'!H10,2)</f>
+        <f>ROUND((H10+H12+H14+H20+H22)/'4-ОМК'!H10,2)</f>
         <v>3379.38</v>
       </c>
       <c r="I23" s="70">
-        <f>ROUND((I10+I12+I14+I20+I22)/'4 ОМК'!H11,2)</f>
+        <f>ROUND((I10+I12+I14+I20+I22)/'4-ОМК'!H11,2)</f>
         <v>5453</v>
       </c>
-      <c r="J23" s="133">
-        <f>ROUND((J10+J12+J20+J22)/'4 ОМК'!K7,2)</f>
+      <c r="J23" s="91">
+        <f>ROUND((J10+J12+J20+J22)/'4-ОМК'!K7,2)</f>
         <v>2108</v>
       </c>
       <c r="K23" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="99">
+        <v>56</v>
+      </c>
+      <c r="L23" s="124">
         <f>SUM(E24:J24)+K25</f>
         <v>271109</v>
       </c>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46">
         <v>20</v>
       </c>
-      <c r="B24" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="110"/>
+      <c r="B24" s="114" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="120"/>
+      <c r="D24" s="131"/>
       <c r="E24" s="67">
         <f>E10+E12+E14+E20+E22</f>
         <v>43050</v>
@@ -4117,61 +4075,61 @@
         <f t="shared" si="1"/>
         <v>43624</v>
       </c>
-      <c r="J24" s="134">
+      <c r="J24" s="92">
         <f>J10+J12+J20+J22</f>
         <v>6324</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="100"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="L24" s="125"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46">
         <v>21</v>
       </c>
-      <c r="B25" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
+      <c r="B25" s="132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="134"/>
       <c r="K25" s="64">
         <f>K20+K12+K10+SUM(K16:K18)</f>
         <v>95279</v>
       </c>
-      <c r="L25" s="100"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="125"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48">
         <v>22</v>
       </c>
-      <c r="B26" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
+      <c r="B26" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
       <c r="L26" s="60">
         <f>L10+L12+L14+SUM(L16:L18)+L20+L22</f>
         <v>271109</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L28">
         <f>$L$26-$L$23</f>
@@ -4179,44 +4137,44 @@
       </c>
       <c r="M28" s="49"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="98"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="123"/>
       <c r="D30" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F30" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -4224,11 +4182,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B6:D6"/>
@@ -4240,16 +4203,11 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="B1:D4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PASKurs/лабораторные работы/l1/PAS1.xlsx
+++ b/PASKurs/лабораторные работы/l1/PAS1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18C422-E1D0-4708-8DFB-835EBB2B5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Каталоги" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="6-РКИСиРК" sheetId="4" r:id="rId4"/>
     <sheet name="8-ОКАСОИиК" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="122">
   <si>
     <t>З1</t>
   </si>
@@ -401,12 +400,15 @@
   </si>
   <si>
     <t>Программы</t>
+  </si>
+  <si>
+    <t>РС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1224,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1480,6 +1482,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1495,10 +1506,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1536,78 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,60 +1927,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
       <c r="H1" s="13"/>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="T1" s="135" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="T1" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-    </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T4" s="5">
         <v>3</v>
       </c>
@@ -2130,26 +2135,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2172,18 +2177,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>SUM(H7:H11) + SUM(K7:K11) + 1</f>
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>23</v>
       </c>
@@ -2191,8 +2196,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G7" t="s">
         <v>24</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>43 - 45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>12 - 18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>19 - 26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>27 - 34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -2262,31 +2267,31 @@
         <v>35 - 42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
@@ -2307,8 +2312,8 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="98" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2332,8 +2337,8 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="99"/>
       <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
@@ -2355,8 +2360,8 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="99"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
@@ -2378,8 +2383,8 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="99"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2401,8 +2406,8 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="100"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
@@ -2424,14 +2429,14 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="16">
         <f>SUM(F2:F6)</f>
         <v>20142</v>
@@ -2440,8 +2445,8 @@
       <c r="H7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="98" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2465,8 +2470,8 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="99"/>
       <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
@@ -2488,8 +2493,8 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="99"/>
       <c r="B10" s="26" t="s">
         <v>2</v>
       </c>
@@ -2512,8 +2517,8 @@
       <c r="J10" s="10"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="99"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
@@ -2536,8 +2541,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="100"/>
       <c r="B12" s="33" t="s">
         <v>4</v>
       </c>
@@ -2559,21 +2564,21 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="17">
         <f>SUM(F8:F12)</f>
         <v>8177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="98" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2597,8 +2602,8 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="99"/>
       <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
@@ -2620,8 +2625,8 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="99"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2643,8 +2648,8 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="99"/>
       <c r="B17" s="26" t="s">
         <v>3</v>
       </c>
@@ -2666,8 +2671,8 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="100"/>
       <c r="B18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2690,14 +2695,14 @@
       <c r="J18" s="10"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="17">
         <f>SUM(F14:F18)</f>
         <v>16500</v>
@@ -2707,8 +2712,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -2729,8 +2734,8 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="99"/>
       <c r="B21" s="30" t="s">
         <v>1</v>
       </c>
@@ -2749,8 +2754,8 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="99"/>
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2770,8 +2775,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="99"/>
       <c r="B23" s="26" t="s">
         <v>3</v>
       </c>
@@ -2790,8 +2795,8 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="100"/>
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2811,22 +2816,22 @@
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="93" t="s">
+    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="18">
         <f>SUM(F20:F24)</f>
         <v>10451</v>
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95" t="s">
+    <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="98" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -2848,8 +2853,8 @@
       <c r="G26" s="8"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96"/>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="99"/>
       <c r="B27" s="26" t="s">
         <v>1</v>
       </c>
@@ -2868,8 +2873,8 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="99"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
       </c>
@@ -2888,8 +2893,8 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="99"/>
       <c r="B29" s="26" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +2913,8 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="100"/>
       <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2928,21 +2933,21 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="15">
         <f>SUM(F26:F30)</f>
         <v>27120</v>
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A31:E31"/>
@@ -2961,22 +2966,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="39" t="s">
         <v>39</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>42</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1">
@@ -3046,7 +3051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>41</v>
       </c>
@@ -3070,7 +3075,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="38"/>
       <c r="D9" s="35" t="s">
         <v>51</v>
@@ -3092,7 +3097,7 @@
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10">
         <f>PRODUCT(H10:J10)</f>
         <v>13680</v>
@@ -3114,11 +3119,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="39" t="s">
         <v>50</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>25300.000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="38"/>
       <c r="D14" s="35" t="s">
         <v>51</v>
@@ -3163,7 +3168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15">
         <f>PRODUCT(H15:J15)</f>
         <v>10120.000000000002</v>
@@ -3191,56 +3196,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="100" t="s">
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="98" t="s">
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="119" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="119"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
@@ -3259,30 +3264,30 @@
       <c r="J2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="103" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="119"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="99"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="119"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="120"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="84" t="str">
         <f>'4-ОМК'!I7</f>
         <v>1 -  11</v>
@@ -3316,15 +3321,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="121"/>
       <c r="E5" s="66" t="s">
         <v>56</v>
       </c>
@@ -3350,15 +3355,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="121"/>
       <c r="E6" s="65" t="s">
         <v>56</v>
       </c>
@@ -3384,15 +3389,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="98"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="88" t="str">
         <f>E4</f>
         <v>1 -  11</v>
@@ -3425,15 +3430,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -3459,14 +3464,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -3497,12 +3502,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="119"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="55" t="s">
         <v>62</v>
       </c>
@@ -3538,13 +3543,17 @@
         <f>SUM(E10:K10)</f>
         <v>11960</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="118">
+        <f>L10+L12</f>
+        <v>25060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="119" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="124" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="55" t="s">
@@ -3574,13 +3583,14 @@
       <c r="L11" s="46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="55" t="s">
         <v>66</v>
       </c>
@@ -3616,13 +3626,14 @@
         <f>SUM(E12:K12)</f>
         <v>13100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="116" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="106" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -3653,12 +3664,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="58" t="s">
         <v>73</v>
       </c>
@@ -3693,14 +3704,14 @@
         <v>82390</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="106" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -3732,12 +3743,12 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="55" t="s">
         <v>77</v>
       </c>
@@ -3767,12 +3778,16 @@
         <f>SUM(E16:K16)</f>
         <v>34051</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="118">
+        <f>SUM(L16:L18)</f>
+        <v>93551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="113"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="47" t="s">
         <v>69</v>
       </c>
@@ -3805,12 +3820,13 @@
         <f>SUM(E17:K17)</f>
         <v>34200</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="118"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="114"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="50" t="s">
         <v>70</v>
       </c>
@@ -3843,17 +3859,17 @@
         <f>SUM(E18:K18)</f>
         <v>25300.000000000004</v>
       </c>
-      <c r="M18" s="11"/>
+      <c r="M18" s="118"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="46">
         <v>15</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="111" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="55" t="s">
@@ -3884,12 +3900,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="46">
         <v>16</v>
       </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="116"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="55" t="s">
         <v>83</v>
       </c>
@@ -3927,12 +3943,12 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="46">
         <v>17</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="116" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="106" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -3963,12 +3979,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="46">
         <v>18</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="120"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="58" t="s">
         <v>85</v>
       </c>
@@ -4004,15 +4020,15 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="46">
         <v>19</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="65">
         <f>ROUND((E10+E12+E14+E20+E22)/'4-ОМК'!H7, 2)</f>
         <v>3913.64</v>
@@ -4040,21 +4056,21 @@
       <c r="K23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="124">
+      <c r="L23" s="104">
         <f>SUM(E24:J24)+K25</f>
         <v>271109</v>
       </c>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="46">
         <v>20</v>
       </c>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="67">
         <f>E10+E12+E14+E20+E22</f>
         <v>43050</v>
@@ -4082,52 +4098,52 @@
       <c r="K24" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="125"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="105"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="46">
         <v>21</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="134"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="117"/>
       <c r="K25" s="64">
         <f>K20+K12+K10+SUM(K16:K18)</f>
         <v>95279</v>
       </c>
-      <c r="L25" s="125"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="105"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48">
         <v>22</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
       <c r="L26" s="60">
         <f>L10+L12+L14+SUM(L16:L18)+L20+L22</f>
         <v>271109</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K28" t="s">
         <v>95</v>
       </c>
@@ -4137,61 +4153,84 @@
       </c>
       <c r="M28" s="49"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="123" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="123"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="14" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="123" t="s">
+      <c r="F30" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="103"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="93">
+        <f>E20+E22</f>
+        <v>16858</v>
+      </c>
+      <c r="F33" s="93">
+        <f t="shared" ref="F33:J33" si="2">F20+F22</f>
+        <v>10766</v>
+      </c>
+      <c r="G33" s="93">
+        <f t="shared" si="2"/>
+        <v>12104</v>
+      </c>
+      <c r="H33" s="93">
+        <f t="shared" si="2"/>
+        <v>12184</v>
+      </c>
+      <c r="I33" s="93">
+        <f t="shared" si="2"/>
+        <v>12104</v>
+      </c>
+      <c r="J33" s="93">
+        <f t="shared" si="2"/>
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="M34" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="28">
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="B1:D4"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B6:D6"/>
@@ -4203,11 +4242,16 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
